--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_MEXICO_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_MEXICO_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D900"/>
+  <dimension ref="A1:D894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C12">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C46">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C74">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C85">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C88">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C113">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C114">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C115">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C123">
@@ -2198,7 +2198,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C139">
@@ -2346,7 +2346,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2403,7 +2403,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C154">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C169">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C183">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C187">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C194">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C195">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C196">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C197">
@@ -3097,12 +3097,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C207">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C209">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C213">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C217">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C220">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C223">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C228">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C232">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C238">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C242">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C247">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C248">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C256">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C263">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C267">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C274">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C283">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C285">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C290">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C305">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C309">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C313">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C319">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C334">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C339">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C346">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C349">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C359">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C368">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C373">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C378">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C380">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C389">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C395">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C400">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C404">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C408">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C413">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C417">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C420">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C422">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C424">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C427">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C428">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C430">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C436">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C440">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C443">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C453">
@@ -7032,7 +7032,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C507">
@@ -7110,7 +7110,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C513">
@@ -7162,7 +7162,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C517">
@@ -7349,7 +7349,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C531">
@@ -7575,7 +7575,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C548">
@@ -7601,7 +7601,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C550">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C560">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C567">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C599">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C605">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C623">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C627">
@@ -8651,7 +8651,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C630">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C640">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C643">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C644">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C646">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C658">
@@ -9059,7 +9059,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C661">
@@ -9072,7 +9072,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C662">
@@ -9098,7 +9098,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C664">
@@ -9137,7 +9137,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9290,7 +9290,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C678">
@@ -9381,7 +9381,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C685">
@@ -9433,7 +9433,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C689">
@@ -9453,7 +9453,7 @@
         <v>82</v>
       </c>
       <c r="D690">
-        <v>0.009681227863046045</v>
+        <v>0.009681227863046043</v>
       </c>
     </row>
     <row r="691">
@@ -9498,7 +9498,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C694">
@@ -9511,7 +9511,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C695">
@@ -9524,7 +9524,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C696">
@@ -9537,7 +9537,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C697">
@@ -10106,7 +10106,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C740">
@@ -10545,7 +10545,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C773">
@@ -10628,7 +10628,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C779">
@@ -10828,7 +10828,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C794">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C802">
@@ -11101,7 +11101,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C815">
@@ -11114,7 +11114,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C816">
@@ -11283,7 +11283,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C829">
@@ -11605,7 +11605,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C853">
@@ -11631,7 +11631,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C855">
@@ -11800,7 +11800,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C868">
@@ -11865,7 +11865,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C873">
@@ -11878,7 +11878,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C874">
@@ -11891,7 +11891,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C875">
@@ -12021,7 +12021,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C885">
@@ -12060,7 +12060,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C888">
@@ -12146,41 +12146,6 @@
       </c>
       <c r="D894">
         <v>1</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
